--- a/New Integration Documentation/TemplateFiles/PersonnelTemplate.xlsx
+++ b/New Integration Documentation/TemplateFiles/PersonnelTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Integration\New Integration Documentation\TemplateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Projects\IntegrationDocumentation\New Integration Documentation\TemplateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Personnel</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -221,10 +224,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +559,7 @@
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -587,7 +590,8 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
@@ -601,6 +605,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -636,11 +641,14 @@
       <c r="L4" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
